--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N2">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O2">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P2">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q2">
-        <v>777.116677452666</v>
+        <v>1908.732453770066</v>
       </c>
       <c r="R2">
-        <v>777.116677452666</v>
+        <v>17178.59208393059</v>
       </c>
       <c r="S2">
-        <v>0.0987639598727664</v>
+        <v>0.1624981651189017</v>
       </c>
       <c r="T2">
-        <v>0.0987639598727664</v>
+        <v>0.1624981651189017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N3">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O3">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P3">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q3">
-        <v>1316.411415969055</v>
+        <v>1750.700193763733</v>
       </c>
       <c r="R3">
-        <v>1316.411415969055</v>
+        <v>15756.3017438736</v>
       </c>
       <c r="S3">
-        <v>0.1673030679112384</v>
+        <v>0.1490442354024031</v>
       </c>
       <c r="T3">
-        <v>0.1673030679112384</v>
+        <v>0.1490442354024032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N4">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O4">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P4">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q4">
-        <v>400.1912183538527</v>
+        <v>619.2530753415426</v>
       </c>
       <c r="R4">
-        <v>400.1912183538527</v>
+        <v>5573.277678073884</v>
       </c>
       <c r="S4">
-        <v>0.05086040562208991</v>
+        <v>0.05271953556847714</v>
       </c>
       <c r="T4">
-        <v>0.05086040562208991</v>
+        <v>0.05271953556847715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N5">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O5">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P5">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q5">
-        <v>111.1486901426295</v>
+        <v>196.4022713137393</v>
       </c>
       <c r="R5">
-        <v>111.1486901426295</v>
+        <v>1767.620441823654</v>
       </c>
       <c r="S5">
-        <v>0.01412591582661775</v>
+        <v>0.01672052500109686</v>
       </c>
       <c r="T5">
-        <v>0.01412591582661775</v>
+        <v>0.01672052500109686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N6">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O6">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P6">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q6">
-        <v>189.0325107316042</v>
+        <v>365.9037800336487</v>
       </c>
       <c r="R6">
-        <v>189.0325107316042</v>
+        <v>3293.134020302838</v>
       </c>
       <c r="S6">
-        <v>0.02402419076340258</v>
+        <v>0.03115087855717926</v>
       </c>
       <c r="T6">
-        <v>0.02402419076340258</v>
+        <v>0.03115087855717927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N7">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O7">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P7">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q7">
-        <v>320.2151778959006</v>
+        <v>335.6090149452444</v>
       </c>
       <c r="R7">
-        <v>320.2151778959006</v>
+        <v>3020.4811345072</v>
       </c>
       <c r="S7">
-        <v>0.04069622992010463</v>
+        <v>0.02857176186125343</v>
       </c>
       <c r="T7">
-        <v>0.04069622992010463</v>
+        <v>0.02857176186125344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N8">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O8">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P8">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q8">
-        <v>97.34593655375024</v>
+        <v>118.7107394844075</v>
       </c>
       <c r="R8">
-        <v>97.34593655375024</v>
+        <v>1068.396655359668</v>
       </c>
       <c r="S8">
-        <v>0.01237172029699113</v>
+        <v>0.01010632857843573</v>
       </c>
       <c r="T8">
-        <v>0.01237172029699113</v>
+        <v>0.01010632857843573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N9">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O9">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P9">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q9">
-        <v>27.03675853549048</v>
+        <v>37.65029160527311</v>
       </c>
       <c r="R9">
-        <v>27.03675853549048</v>
+        <v>338.852624447458</v>
       </c>
       <c r="S9">
-        <v>0.003436108646956043</v>
+        <v>0.003205322616045108</v>
       </c>
       <c r="T9">
-        <v>0.003436108646956043</v>
+        <v>0.003205322616045108</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N10">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O10">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P10">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q10">
-        <v>1226.394997013912</v>
+        <v>2435.624236909611</v>
       </c>
       <c r="R10">
-        <v>1226.394997013912</v>
+        <v>21920.6181321865</v>
       </c>
       <c r="S10">
-        <v>0.155862857904785</v>
+        <v>0.2073546078368376</v>
       </c>
       <c r="T10">
-        <v>0.155862857904785</v>
+        <v>0.2073546078368376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N11">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O11">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P11">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q11">
-        <v>2077.474877837485</v>
+        <v>2233.9683149784</v>
       </c>
       <c r="R11">
-        <v>2077.474877837485</v>
+        <v>20105.7148348056</v>
       </c>
       <c r="S11">
-        <v>0.264026820456339</v>
+        <v>0.1901868181686426</v>
       </c>
       <c r="T11">
-        <v>0.264026820456339</v>
+        <v>0.1901868181686426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N12">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O12">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P12">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q12">
-        <v>631.5557525375091</v>
+        <v>790.1934061547458</v>
       </c>
       <c r="R12">
-        <v>631.5557525375091</v>
+        <v>7111.740655392713</v>
       </c>
       <c r="S12">
-        <v>0.08026458421339</v>
+        <v>0.06727238190746948</v>
       </c>
       <c r="T12">
-        <v>0.08026458421339</v>
+        <v>0.06727238190746949</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N13">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O13">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P13">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q13">
-        <v>175.4076337190347</v>
+        <v>250.617697232001</v>
       </c>
       <c r="R13">
-        <v>175.4076337190347</v>
+        <v>2255.559275088009</v>
       </c>
       <c r="S13">
-        <v>0.02229260161394342</v>
+        <v>0.02133610494550248</v>
       </c>
       <c r="T13">
-        <v>0.02229260161394342</v>
+        <v>0.02133610494550249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.7223463706076</v>
+        <v>19.816421</v>
       </c>
       <c r="N14">
-        <v>10.7223463706076</v>
+        <v>59.449263</v>
       </c>
       <c r="O14">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="P14">
-        <v>0.2983324594107662</v>
+        <v>0.4265240049466206</v>
       </c>
       <c r="Q14">
-        <v>154.8619934548998</v>
+        <v>299.766626872043</v>
       </c>
       <c r="R14">
-        <v>154.8619934548998</v>
+        <v>2697.899641848387</v>
       </c>
       <c r="S14">
-        <v>0.0196814508698122</v>
+        <v>0.02552035343370204</v>
       </c>
       <c r="T14">
-        <v>0.0196814508698122</v>
+        <v>0.02552035343370205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.1633203581607</v>
+        <v>18.17573333333333</v>
       </c>
       <c r="N15">
-        <v>18.1633203581607</v>
+        <v>54.5272</v>
       </c>
       <c r="O15">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294916</v>
       </c>
       <c r="P15">
-        <v>0.5053658822633856</v>
+        <v>0.3912102278294917</v>
       </c>
       <c r="Q15">
-        <v>262.3313872918039</v>
+        <v>274.9476442925334</v>
       </c>
       <c r="R15">
-        <v>262.3313872918039</v>
+        <v>2474.5287986328</v>
       </c>
       <c r="S15">
-        <v>0.0333397639757036</v>
+        <v>0.02340741239719251</v>
       </c>
       <c r="T15">
-        <v>0.0333397639757036</v>
+        <v>0.02340741239719251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.52167902473928</v>
+        <v>6.429072666666666</v>
       </c>
       <c r="N16">
-        <v>5.52167902473928</v>
+        <v>19.287218</v>
       </c>
       <c r="O16">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="P16">
-        <v>0.1536320527793175</v>
+        <v>0.1383778545015528</v>
       </c>
       <c r="Q16">
-        <v>79.74916976504801</v>
+        <v>97.25375874896467</v>
       </c>
       <c r="R16">
-        <v>79.74916976504801</v>
+        <v>875.283828740682</v>
       </c>
       <c r="S16">
-        <v>0.01013534264684647</v>
+        <v>0.008279608447170484</v>
       </c>
       <c r="T16">
-        <v>0.01013534264684647</v>
+        <v>0.008279608447170485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.53358535330263</v>
+        <v>2.039044333333333</v>
       </c>
       <c r="N17">
-        <v>1.53358535330263</v>
+        <v>6.117133</v>
       </c>
       <c r="O17">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="P17">
-        <v>0.0426696055465308</v>
+        <v>0.04388791272233494</v>
       </c>
       <c r="Q17">
-        <v>22.14945094449734</v>
+        <v>30.84499677544634</v>
       </c>
       <c r="R17">
-        <v>22.14945094449734</v>
+        <v>277.604970979017</v>
       </c>
       <c r="S17">
-        <v>0.002814979459013588</v>
+        <v>0.002625960159690492</v>
       </c>
       <c r="T17">
-        <v>0.002814979459013588</v>
+        <v>0.002625960159690492</v>
       </c>
     </row>
   </sheetData>
